--- a/biology/Médecine/Michael_Greger/Michael_Greger.xlsx
+++ b/biology/Médecine/Michael_Greger/Michael_Greger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Herschel Greger, né le 25 octobre 1972[1], est un docteur en médecine américain, auteur et conférencier spécialiste en nutrition et en alimentation végétalienne. Il gère le site internet NutritionFacts.org, qui fournit gratuitement vidéos et articles sur les dernières avancées dans le domaine de la nutrition. Il dirige actuellement le département Santé publique et élevage au sein de la Humane Society International (en)[1],[2], la division internationale de la Humane Society of the United States.
-Son best seller, « How not to die » (Comment ne pas mourir), a figuré au moins trois fois sur la New York Times Best Seller List[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Herschel Greger, né le 25 octobre 1972, est un docteur en médecine américain, auteur et conférencier spécialiste en nutrition et en alimentation végétalienne. Il gère le site internet NutritionFacts.org, qui fournit gratuitement vidéos et articles sur les dernières avancées dans le domaine de la nutrition. Il dirige actuellement le département Santé publique et élevage au sein de la Humane Society International (en) la division internationale de la Humane Society of the United States.
+Son best seller, « How not to die » (Comment ne pas mourir), a figuré au moins trois fois sur la New York Times Best Seller List.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Michael Greger, How Not To Diet : The Groundbreaking Science of Healthy, Permanent Weight Loss, USA, Pan Macmillan, 2019, 608 p. (ISBN 978-1-250-19922-5 et 1-250-19922-0)
 (en) Michael Greger, Gene Stone et Robin Robertson, The How Not to Die Cookbook : 100+ Recipes to Help Prevent and Reverse Disease, USA, Flatiron Books, 2018, 272 p. (ISBN 978-1-250-12776-1 et 1-250-12776-9)
